--- a/Assets/Configs/Inventory/Property/Xlsxs/ItemData.xlsx
+++ b/Assets/Configs/Inventory/Property/Xlsxs/ItemData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>合金斧头</t>
+  </si>
+  <si>
+    <t>地面容器</t>
   </si>
 </sst>
 </file>
@@ -707,12 +710,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,15 +1028,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.3272727272727" defaultRowHeight="15.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3272727272727" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.2" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.8181818181818" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.0818181818182" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.55454545454545" style="1" customWidth="1"/>
@@ -1044,16 +1044,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1250,6 +1250,20 @@
         <v>5.6</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>110000</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
